--- a/LabIACD_2324_GroupEvaluation_TP1_Group1.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TP1_Group1.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Fac\3ºano\Lab_IACD\Project1\lung-cancer-classification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5441932-F58C-43B1-8D69-EF514E6F93DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,20 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Student</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -44,46 +60,46 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(sum of all students should be = 100%)</t>
+      <t>(sum of all students should be = 100%)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Task the student participated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justification in case that % is not equal to all students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constança Fernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela Osório</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inês Amorim</t>
+    <t>Task the student participated</t>
+  </si>
+  <si>
+    <t>Justification in case that % is not equal to all students</t>
+  </si>
+  <si>
+    <t>Constança Fernandes</t>
+  </si>
+  <si>
+    <t>Daniela Osório</t>
+  </si>
+  <si>
+    <t>Inês Amorim</t>
   </si>
   <si>
     <t xml:space="preserve">     - Import, Handle and Cluster Annotations;            - Feature Extraction with pyradiomics;                         - Making of the video; </t>
   </si>
   <si>
-    <t xml:space="preserve">Pedro Afonseca</t>
+    <t>Pedro Afonseca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -sond convertion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,22 +108,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -115,7 +116,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -132,119 +133,412 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.27"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" customWidth="1"/>
+    <col min="6" max="6" width="40.08984375" customWidth="1"/>
+    <col min="7" max="7" width="41.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="4:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -258,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
@@ -266,15 +560,17 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="4:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
@@ -284,7 +580,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -292,19 +588,14 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/LabIACD_2324_GroupEvaluation_TP1_Group1.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TP1_Group1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Fac\3ºano\Lab_IACD\Project1\lung-cancer-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3B8A0C-F37F-49D9-8A38-76BE61DD6F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F4A493-D46B-4D5D-9F39-AFF99757C335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Group</t>
   </si>
@@ -75,7 +75,10 @@
     <t>CNN feature extraction; Visualization of results; Model training pipeline</t>
   </si>
   <si>
-    <t xml:space="preserve">conversion of nodule to sound; sound extraction </t>
+    <t xml:space="preserve">conversion of nodule to sound; sound feature extraction </t>
+  </si>
+  <si>
+    <t>sound feature extraction; documento de ética</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
   <dimension ref="D3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +406,9 @@
         <v>6</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">

--- a/LabIACD_2324_GroupEvaluation_TP1_Group1.xlsx
+++ b/LabIACD_2324_GroupEvaluation_TP1_Group1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Fac\3ºano\Lab_IACD\Project1\lung-cancer-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F4A493-D46B-4D5D-9F39-AFF99757C335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C399FA-4112-4796-B9D3-BF91108B27CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Group</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>sound feature extraction; documento de ética</t>
+  </si>
+  <si>
+    <t>showed no particular interest in the project</t>
   </si>
 </sst>
 </file>
@@ -359,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,17 +408,23 @@
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>13</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>29</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
@@ -425,7 +434,9 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>29</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
@@ -435,7 +446,9 @@
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>29</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
